--- a/16 - Prudential/Documentos diversos/Demanda de Janeiro do SISLPA.xlsx
+++ b/16 - Prudential/Documentos diversos/Demanda de Janeiro do SISLPA.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$2:$G$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Melhoria</t>
   </si>
@@ -53,7 +53,101 @@
     <t>Observações técnicas</t>
   </si>
   <si>
-    <t xml:space="preserve">É necessário atualizar o filtro de contatos para SitPlan. Precisamos definir exatamente quais status devem estar disponíveis. Pelo que entendi são eles:
+    <t>1 dia</t>
+  </si>
+  <si>
+    <t>Ao fazer um Sit Plan selecionei todas as recomendações de um recomendante, manualmente e uma recomendação de um outro recomendante. A lista gerada continha a recomendante e uma recomendação a menos, e a recomendação do outro recomendante também não apareceu. Se quiser simular a recomendante e a Sandrelise e o Fabricio Resende. Na verdade ele não respeitou os contatos marcados para gerar o Sit Plan</t>
+  </si>
+  <si>
+    <t>É necessário alterar o filtro de recomendantes para seleção múltipla. Ou seja, deve ser possível selecionar mais de um recomendante para pesquisa de contatos de SitPlan e não apenas só um como hoje</t>
+  </si>
+  <si>
+    <t>1 a 3 dias</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>poder mudar o status na execução do TA.</t>
+  </si>
+  <si>
+    <t>Isso já existe no sistema. Favor conferir. Ou então detalhar melhor.</t>
+  </si>
+  <si>
+    <t>Otimizar desempenho do sistema</t>
+  </si>
+  <si>
+    <t>Necessário revisão e análise do servidor de banco de dados, da aplicação e da rede da prudential. Criação de índices nas tabelas também poderá ajudar.</t>
+  </si>
+  <si>
+    <t>1 a 2 semanas</t>
+  </si>
+  <si>
+    <t>Retirar o nome "life Planner"</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>Atualizado em regime de urgência</t>
+  </si>
+  <si>
+    <t>Solicito a inclusão do campo cidade como filtro na tela de inclusão de um Sit Plan. O ideal seria que pudéssemos filtrar por mais opções: Estado, idade(intervalo), número de filhos, cidade. O sexo para filtro me parece irrelevante.</t>
+  </si>
+  <si>
+    <t>2 a 3 dias</t>
+  </si>
+  <si>
+    <t>Correção do cadastro de contato - status não estava setado para "Nenhum" após o primeiro cadastro</t>
+  </si>
+  <si>
+    <t>Cristian, cadastrei vários nomes no final de semana e deixei todos em status "nenhum" . Hoje ao abrir pra montar o sitplan grande parte dos contatos estão com status diferente do "nenhum"</t>
+  </si>
+  <si>
+    <t>Cristian, está com demora no registro de histórico, após clicar em incluir não demonstra que está processando, fica a tela inalterada. Cliquei novamente e duplicou o registro.</t>
+  </si>
+  <si>
+    <t>bloquear click no botão incluir do histórico após o primeiro click. A otimização do desempenho irá ajudar nisso também.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>O IDEAL SERIA QUE AO AGENDAR AQUI JÁ APARECESSE NA AGENDA DO GOOGLE AUTOMATICAMENTE, SEM A NECESSIDADE DE TER QUE ENTRAR NO EMAIL PARA APROVAR.</t>
+  </si>
+  <si>
+    <t>Não recomendável. Seria necessário que cada usuário inserisse os dados de acesso do email (usuário e senha) e isso causa uma vulnerabilidade de segurança muito grave.</t>
+  </si>
+  <si>
+    <t>NESTA TELA NÃO TEM A OPÇÃO DE AGENDAR E TB DE ALTERAÇAO DO STATUS. É MUITO IMPORTANTE QUE TENHA AQUI, POIS É ONDE SE ENCONTRAM OS DETALHES DO CLIENTE EM POTENCIAL E NESSE CASO TERIA QUE VOLTAR NA TELA ANTERIOR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilitar campos e ativar lógica de salmavento de dados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 a 2 dias </t>
+  </si>
+  <si>
+    <t>BACK UP DO USUARIO.  SERIA INTERESSANTE GERAR UMA PLANILHA EM EXCEL COM TODOS OS DADOS, PARA O LP TER UMA SEGURANÇA MAIOR.</t>
+  </si>
+  <si>
+    <t>Exportação de contatos para arquivo XLS</t>
+  </si>
+  <si>
+    <t>1 semana</t>
+  </si>
+  <si>
+    <t>Incluir os campos UF (mais de uma), Idade (De, até), Filhos (de, até), Cidade (mais de uma da UF), Profissão. Retirar o filtro sexo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">É necessário atualizar o filtro de contatos para SitPlan. Precisamos definir exatamente quais status devem estar disponíveis. Pelo que entendi são eles:
 • NENHUM 
 • OI DELAY
 • OI REALIZADO
@@ -65,104 +159,35 @@
 • TA LIGAÇÃO FUTURA
 • TA NÃO ATENDEU
 • TA NÃO QUER
-Confirmam?
 </t>
-  </si>
-  <si>
-    <t>1 dia</t>
-  </si>
-  <si>
-    <t>Ao fazer um Sit Plan selecionei todas as recomendações de um recomendante, manualmente e uma recomendação de um outro recomendante. A lista gerada continha a recomendante e uma recomendação a menos, e a recomendação do outro recomendante também não apareceu. Se quiser simular a recomendante e a Sandrelise e o Fabricio Resende. Na verdade ele não respeitou os contatos marcados para gerar o Sit Plan</t>
-  </si>
-  <si>
-    <t>É necessário alterar o filtro de recomendantes para seleção múltipla. Ou seja, deve ser possível selecionar mais de um recomendante para pesquisa de contatos de SitPlan e não apenas só um como hoje</t>
-  </si>
-  <si>
-    <t>1 a 3 dias</t>
-  </si>
-  <si>
-    <t>Bug</t>
-  </si>
-  <si>
-    <t>poder mudar o status na execução do TA.</t>
-  </si>
-  <si>
-    <t>Isso já existe no sistema. Favor conferir. Ou então detalhar melhor.</t>
-  </si>
-  <si>
-    <t>Otimizar desempenho do sistema</t>
-  </si>
-  <si>
-    <t>Necessário revisão e análise do servidor de banco de dados, da aplicação e da rede da prudential. Criação de índices nas tabelas também poderá ajudar.</t>
-  </si>
-  <si>
-    <t>1 a 2 semanas</t>
-  </si>
-  <si>
-    <t>Retirar o nome "life Planner"</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>Concluído</t>
-  </si>
-  <si>
-    <t>Atualizado em regime de urgência</t>
-  </si>
-  <si>
-    <t>Solicito a inclusão do campo cidade como filtro na tela de inclusão de um Sit Plan. O ideal seria que pudéssemos filtrar por mais opções: Estado, idade(intervalo), número de filhos, cidade. O sexo para filtro me parece irrelevante.</t>
-  </si>
-  <si>
-    <t>2 a 3 dias</t>
-  </si>
-  <si>
-    <t>Correção do cadastro de contato - status não estava setado para "Nenhum" após o primeiro cadastro</t>
-  </si>
-  <si>
-    <t>Cristian, cadastrei vários nomes no final de semana e deixei todos em status "nenhum" . Hoje ao abrir pra montar o sitplan grande parte dos contatos estão com status diferente do "nenhum"</t>
-  </si>
-  <si>
-    <t>Cristian, está com demora no registro de histórico, após clicar em incluir não demonstra que está processando, fica a tela inalterada. Cliquei novamente e duplicou o registro.</t>
-  </si>
-  <si>
-    <t>bloquear click no botão incluir do histórico após o primeiro click. A otimização do desempenho irá ajudar nisso também.</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>O IDEAL SERIA QUE AO AGENDAR AQUI JÁ APARECESSE NA AGENDA DO GOOGLE AUTOMATICAMENTE, SEM A NECESSIDADE DE TER QUE ENTRAR NO EMAIL PARA APROVAR.</t>
-  </si>
-  <si>
-    <t>Não recomendável. Seria necessário que cada usuário inserisse os dados de acesso do email (usuário e senha) e isso causa uma vulnerabilidade de segurança muito grave.</t>
-  </si>
-  <si>
-    <t>NESTA TELA NÃO TEM A OPÇÃO DE AGENDAR E TB DE ALTERAÇAO DO STATUS. É MUITO IMPORTANTE QUE TENHA AQUI, POIS É ONDE SE ENCONTRAM OS DETALHES DO CLIENTE EM POTENCIAL E NESSE CASO TERIA QUE VOLTAR NA TELA ANTERIOR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habilitar campos e ativar lógica de salmavento de dados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 a 2 dias </t>
-  </si>
-  <si>
-    <t>BACK UP DO USUARIO.  SERIA INTERESSANTE GERAR UMA PLANILHA EM EXCEL COM TODOS OS DADOS, PARA O LP TER UMA SEGURANÇA MAIOR.</t>
-  </si>
-  <si>
-    <t>Exportação de contatos para arquivo XLS</t>
-  </si>
-  <si>
-    <t>1 semana</t>
-  </si>
-  <si>
-    <t>Incluir os campos UF (mais de uma), Idade (De, até), Filhos (de, até), Cidade (mais de uma da UF), Profissão. Retirar o filtro sexo.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rogério, Marcelo e Alberto, Confirmam?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Priorização das demandas do SISLPA - JANEIRO 2015</t>
+  </si>
+  <si>
+    <t>Tarefas Concluídas</t>
   </si>
 </sst>
 </file>
@@ -172,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +237,23 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +278,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -303,12 +349,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -316,53 +371,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -645,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,309 +723,294 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="309.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14">
+        <v>50</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="14">
+        <v>100</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="14">
+        <v>150</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="14">
+        <v>150</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="14">
+        <v>450</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8">
         <v>50</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7">
-        <v>100</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11">
-        <v>50</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7">
-        <v>150</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="7">
-        <v>150</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7">
-        <v>450</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="3">
-        <f>SUM(E2:E12)</f>
-        <v>950</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -977,11 +1023,11 @@
     <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:G13"/>
-  <mergeCells count="1">
-    <mergeCell ref="A13:D13"/>
+  <autoFilter ref="A2:G12"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
